--- a/Robot Registro de facturas/Config/Archivos/UiTree.xlsx
+++ b/Robot Registro de facturas/Config/Archivos/UiTree.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="624">
   <si>
     <t>Documentos/1793192524001 FARO WINDP POINT CORP S.A./FC/002-001-000001309</t>
   </si>
@@ -1879,6 +1879,21 @@
   </si>
   <si>
     <t>Documento</t>
+  </si>
+  <si>
+    <t>Comentario ZFI081</t>
+  </si>
+  <si>
+    <t>Revisión manual</t>
+  </si>
+  <si>
+    <t>Proveedores no validos</t>
+  </si>
+  <si>
+    <t>Factura registrada</t>
+  </si>
+  <si>
+    <t>asdad</t>
   </si>
 </sst>
 </file>
@@ -2212,58 +2227,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B310"/>
+  <dimension ref="A1:C310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="37.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>617</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2271,7 +2303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2279,7 +2311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2287,7 +2319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2295,7 +2327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2303,7 +2335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2311,7 +2343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2319,7 +2351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -2327,7 +2359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -2335,7 +2367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2343,7 +2375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>

--- a/Robot Registro de facturas/Config/Archivos/UiTree.xlsx
+++ b/Robot Registro de facturas/Config/Archivos/UiTree.xlsx
@@ -15,14 +15,14 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$311</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$309</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="615">
   <si>
     <t>Documentos/1793192524001 FARO WINDP POINT CORP S.A./FC/002-001-000001309</t>
   </si>
@@ -48,12 +48,6 @@
     <t>001-001-000001275</t>
   </si>
   <si>
-    <t>Documentos/1793038085001 GLOBE INDUSTRIES GLOBEINDU/FC/001-001-000001274</t>
-  </si>
-  <si>
-    <t>001-001-000001274</t>
-  </si>
-  <si>
     <t>Documentos/1792765854001 PRODUCTOS &amp; SERVICIOS INDU/FC/001-001-000000191</t>
   </si>
   <si>
@@ -102,12 +96,6 @@
     <t>001-001-000000062</t>
   </si>
   <si>
-    <t>Documentos/1792385067001 DOTALTURAS/FC/001-001-000011900</t>
-  </si>
-  <si>
-    <t>001-001-000011900</t>
-  </si>
-  <si>
     <t>Documentos/1792385067001 DOTALTURAS/FC/001-001-000011897</t>
   </si>
   <si>
@@ -1879,21 +1867,6 @@
   </si>
   <si>
     <t>Documento</t>
-  </si>
-  <si>
-    <t>Comentario ZFI081</t>
-  </si>
-  <si>
-    <t>Revisión manual</t>
-  </si>
-  <si>
-    <t>Proveedores no validos</t>
-  </si>
-  <si>
-    <t>Factura registrada</t>
-  </si>
-  <si>
-    <t>asdad</t>
   </si>
 </sst>
 </file>
@@ -2227,75 +2200,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C310"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2303,7 +2259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2311,7 +2267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2319,7 +2275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2327,7 +2283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2335,7 +2291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2343,7 +2299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2351,7 +2307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -2359,7 +2315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -2367,7 +2323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -2375,7 +2331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -4580,23 +4536,23 @@
         <v>578</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>579</v>
+        <v>359</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -4719,24 +4675,8 @@
         <v>612</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B311"/>
+  <autoFilter ref="A1:B309"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Robot Registro de facturas/Config/Archivos/UiTree.xlsx
+++ b/Robot Registro de facturas/Config/Archivos/UiTree.xlsx
@@ -15,14 +15,14 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$C$293</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="595">
   <si>
     <t>Documentos/1793192524001 FARO WINDP POINT CORP S.A./FC/002-001-000001309</t>
   </si>
@@ -36,18 +36,18 @@
     <t>001-002-000000304</t>
   </si>
   <si>
-    <t>Documentos/1793038085001 GLOBE INDUSTRIES GLOBEINDU/FC/001-001-000001276</t>
-  </si>
-  <si>
-    <t>001-001-000001276</t>
-  </si>
-  <si>
     <t>Documentos/1793038085001 GLOBE INDUSTRIES GLOBEINDU/FC/001-001-000001275</t>
   </si>
   <si>
     <t>001-001-000001275</t>
   </si>
   <si>
+    <t>Documentos/1793038085001 GLOBE INDUSTRIES GLOBEINDU/FC/001-001-000001274</t>
+  </si>
+  <si>
+    <t>001-001-000001274</t>
+  </si>
+  <si>
     <t>Documentos/1792765854001 PRODUCTOS &amp; SERVICIOS INDU/FC/001-001-000000191</t>
   </si>
   <si>
@@ -252,16 +252,1561 @@
     <t>001-003-000043615</t>
   </si>
   <si>
+    <t>Documentos/1792010705001 PLATINIUM PART PLATPART S./FC/001-002-000022275</t>
+  </si>
+  <si>
+    <t>001-002-000022275</t>
+  </si>
+  <si>
+    <t>Documentos/1792010705001 PLATINIUM PART PLATPART S./FC/001-002-000022271</t>
+  </si>
+  <si>
+    <t>001-002-000022271</t>
+  </si>
+  <si>
+    <t>Documentos/1792001935001 INGENIERIA DE METALIZACION/FC/001-001-000000682</t>
+  </si>
+  <si>
+    <t>001-001-000000682</t>
+  </si>
+  <si>
+    <t>Documentos/1792001935001 INGENIERIA DE METALIZACION/FC/001-001-000000681</t>
+  </si>
+  <si>
+    <t>001-001-000000681</t>
+  </si>
+  <si>
+    <t>Documentos/1792001935001 INGENIERIA DE METALIZACION/FC/001-001-000000680</t>
+  </si>
+  <si>
+    <t>001-001-000000680</t>
+  </si>
+  <si>
+    <t>Documentos/1791997832001 INECYC/FC/002-001-000000286</t>
+  </si>
+  <si>
+    <t>002-001-000000286</t>
+  </si>
+  <si>
+    <t>Documentos/1791997832001 INECYC/FC/002-001-000000285</t>
+  </si>
+  <si>
+    <t>002-001-000000285</t>
+  </si>
+  <si>
+    <t>Documentos/1791997832001 INECYC/FC/002-001-000000284</t>
+  </si>
+  <si>
+    <t>002-001-000000284</t>
+  </si>
+  <si>
+    <t>Documentos/1791997832001 INECYC/FC/002-001-000000283</t>
+  </si>
+  <si>
+    <t>002-001-000000283</t>
+  </si>
+  <si>
+    <t>Documentos/1791997832001 INECYC/FC/002-001-000000282</t>
+  </si>
+  <si>
+    <t>002-001-000000282</t>
+  </si>
+  <si>
+    <t>Documentos/1791997832001 INECYC/FC/002-001-000000281</t>
+  </si>
+  <si>
+    <t>002-001-000000281</t>
+  </si>
+  <si>
+    <t>Documentos/1791997832001 INECYC/FC/002-001-000000280</t>
+  </si>
+  <si>
+    <t>002-001-000000280</t>
+  </si>
+  <si>
+    <t>Documentos/1791997832001 INECYC/FC/002-001-000000279</t>
+  </si>
+  <si>
+    <t>002-001-000000279</t>
+  </si>
+  <si>
+    <t>Documentos/1791997832001 INECYC/FC/002-001-000000278</t>
+  </si>
+  <si>
+    <t>002-001-000000278</t>
+  </si>
+  <si>
+    <t>Documentos/1791997832001 INECYC/FC/002-001-000000277</t>
+  </si>
+  <si>
+    <t>002-001-000000277</t>
+  </si>
+  <si>
+    <t>Documentos/1791997832001 INECYC/FC/002-001-000000276</t>
+  </si>
+  <si>
+    <t>002-001-000000276</t>
+  </si>
+  <si>
+    <t>Documentos/1791936574001 ECUATORIANA INDUSTRIAL TER/FC/005-001-000004932</t>
+  </si>
+  <si>
+    <t>005-001-000004932</t>
+  </si>
+  <si>
+    <t>Documentos/1791936574001 ECUATORIANA INDUSTRIAL TER/FC/005-001-000004921</t>
+  </si>
+  <si>
+    <t>005-001-000004921</t>
+  </si>
+  <si>
+    <t>Documentos/1791913086001 PB&amp; A COMERCIO INDUSTRIAL/FC/001-902-000006234</t>
+  </si>
+  <si>
+    <t>001-902-000006234</t>
+  </si>
+  <si>
+    <t>Documentos/1791907116001 ELECTRICAL SIGHT CIA. LTDA/FC/001-002-000000263</t>
+  </si>
+  <si>
+    <t>001-002-000000263</t>
+  </si>
+  <si>
+    <t>Documentos/1791907116001 ELECTRICAL SIGHT CIA. LTDA/FC/001-002-000000262</t>
+  </si>
+  <si>
+    <t>001-002-000000262</t>
+  </si>
+  <si>
+    <t>Documentos/1791865235001 PC INTERNACIONAL SEARCH &amp;/FC/001-002-000000005</t>
+  </si>
+  <si>
+    <t>001-002-000000005</t>
+  </si>
+  <si>
+    <t>Documentos/1791865235001 PC INTERNACIONAL SEARCH &amp;/FC/001-002-000000004</t>
+  </si>
+  <si>
+    <t>001-002-000000004</t>
+  </si>
+  <si>
+    <t>Documentos/1791705122001 DEGSO CIA LTDA/FC/001-003-000049372</t>
+  </si>
+  <si>
+    <t>001-003-000049372</t>
+  </si>
+  <si>
+    <t>Documentos/1791705122001 DEGSO CIA LTDA/FC/001-003-000049271</t>
+  </si>
+  <si>
+    <t>001-003-000049271</t>
+  </si>
+  <si>
+    <t>Documentos/1791402391001 PROVEEDORA DE INSTRUMENTOS/FC/001-002-000002368</t>
+  </si>
+  <si>
+    <t>001-002-000002368</t>
+  </si>
+  <si>
+    <t>Documentos/1791359038001 PRECISION Y CONTROL PRECIT/FC/001-004-000001103</t>
+  </si>
+  <si>
+    <t>001-004-000001103</t>
+  </si>
+  <si>
+    <t>Documentos/1791349962001 MG ECUADORWELDING S.A./FC/001-001-000006443</t>
+  </si>
+  <si>
+    <t>001-001-000006443</t>
+  </si>
+  <si>
+    <t>Documentos/1791349962001 MG ECUADORWELDING S.A./FC/001-001-000006439</t>
+  </si>
+  <si>
+    <t>001-001-000006439</t>
+  </si>
+  <si>
+    <t>Documentos/1791349962001 MG ECUADORWELDING S.A./FC/001-001-000006409</t>
+  </si>
+  <si>
+    <t>001-001-000006409</t>
+  </si>
+  <si>
+    <t>Documentos/1791349962001 MG ECUADORWELDING S.A./FC/001-001-000006394</t>
+  </si>
+  <si>
+    <t>001-001-000006394</t>
+  </si>
+  <si>
+    <t>Documentos/1791325524001 Sociedad Hotelera Cotopaxi/FC/001-010-000062791</t>
+  </si>
+  <si>
+    <t>001-010-000062791</t>
+  </si>
+  <si>
+    <t>Documentos/1791317025001 PANAMERICANA VIAL S.A./NC/007-032-000007551</t>
+  </si>
+  <si>
+    <t>007-032-000007551</t>
+  </si>
+  <si>
+    <t>Documentos/1791317025001 PANAMERICANA VIAL S.A./FC/007-041-000034134</t>
+  </si>
+  <si>
+    <t>007-041-000034134</t>
+  </si>
+  <si>
+    <t>Documentos/1791317025001 PANAMERICANA VIAL S.A./FC/007-041-000033928</t>
+  </si>
+  <si>
+    <t>007-041-000033928</t>
+  </si>
+  <si>
+    <t>Documentos/1791317025001 PANAMERICANA VIAL S.A./FC/007-032-004872721</t>
+  </si>
+  <si>
+    <t>007-032-004872721</t>
+  </si>
+  <si>
+    <t>Documentos/1791305450001 FIDEICOMISO HIT/FC/003-025-000001732</t>
+  </si>
+  <si>
+    <t>003-025-000001732</t>
+  </si>
+  <si>
+    <t>Documentos/1791305450001 FIDEICOMISO HIT/FC/003-021-000048555</t>
+  </si>
+  <si>
+    <t>003-021-000048555</t>
+  </si>
+  <si>
+    <t>Documentos/1791304667001 voestalpine High Performan/FC/001-001-591903902</t>
+  </si>
+  <si>
+    <t>001-001-591903902</t>
+  </si>
+  <si>
+    <t>Documentos/1791304667001 voestalpine High Performan/FC/001-001-591903864</t>
+  </si>
+  <si>
+    <t>001-001-591903864</t>
+  </si>
+  <si>
+    <t>Documentos/1791293908001 QUIMICOS EXPORTACIONES E I/FC/001-002-000060704</t>
+  </si>
+  <si>
+    <t>001-002-000060704</t>
+  </si>
+  <si>
+    <t>Documentos/1791287835001 CONSORCIO DEL PICHINCHA S./FC/035-002-000051435</t>
+  </si>
+  <si>
+    <t>035-002-000051435</t>
+  </si>
+  <si>
+    <t>Documentos/1791287835001 CONSORCIO DEL PICHINCHA S./FC/035-002-000051421</t>
+  </si>
+  <si>
+    <t>035-002-000051421</t>
+  </si>
+  <si>
+    <t>Documentos/1791287665001 QUANTUM S A/FC/006-001-000002642</t>
+  </si>
+  <si>
+    <t>006-001-000002642</t>
+  </si>
+  <si>
+    <t>Documentos/1791092007001 ENSAYOS NO DESTRUCTIVOS DE/FC/001-011-000002057</t>
+  </si>
+  <si>
+    <t>001-011-000002057</t>
+  </si>
+  <si>
+    <t>Documentos/1790924491001 EDICIONES LEGALES EDLE SA/FC/001-002-000020374</t>
+  </si>
+  <si>
+    <t>001-002-000020374</t>
+  </si>
+  <si>
+    <t>Documentos/1790885186001 COMPUTADORES Y EQUIPOS COM/FC/001-001-000047927</t>
+  </si>
+  <si>
+    <t>001-001-000047927</t>
+  </si>
+  <si>
+    <t>Documentos/1790666565001 S.G.S DEL ECUADOR S. A./FC/001-012-000071705</t>
+  </si>
+  <si>
+    <t>001-012-000071705</t>
+  </si>
+  <si>
+    <t>Documentos/1790347265001 INDUSTRIAS CLAVEC CIA. LTD/FC/001-100-000002889</t>
+  </si>
+  <si>
+    <t>001-100-000002889</t>
+  </si>
+  <si>
+    <t>Documentos/1790219526001 Siemens S.A./FC/002-002-000030484</t>
+  </si>
+  <si>
+    <t>002-002-000030484</t>
+  </si>
+  <si>
+    <t>Documentos/1790189163001 COPIADORA ECUATORIANA ECUA/FC/001-001-000070266</t>
+  </si>
+  <si>
+    <t>001-001-000070266</t>
+  </si>
+  <si>
+    <t>Documentos/1790016919001 CORPORACION FAVORITA C.A./FC/002-103-000357442</t>
+  </si>
+  <si>
+    <t>002-103-000357442</t>
+  </si>
+  <si>
+    <t>Documentos/1790016919001 CORPORACION FAVORITA C.A./FC/001-022-000048112</t>
+  </si>
+  <si>
+    <t>001-022-000048112</t>
+  </si>
+  <si>
+    <t>Documentos/1790007502001 SEGUROS EQUINOCCIAL S.A./FC/001-102-000000083</t>
+  </si>
+  <si>
+    <t>001-102-000000083</t>
+  </si>
+  <si>
+    <t>Documentos/1768181900001 Agencia de Regulacion y Co/FC/001-002-000266667</t>
+  </si>
+  <si>
+    <t>001-002-000266667</t>
+  </si>
+  <si>
+    <t>Documentos/1724313935001 GONZALEZ VARGAS JOSE MANUE/FC/001-002-000001447</t>
+  </si>
+  <si>
+    <t>001-002-000001447</t>
+  </si>
+  <si>
+    <t>Documentos/1724313935001 GONZALEZ VARGAS JOSE MANUE/FC/001-002-000001446</t>
+  </si>
+  <si>
+    <t>001-002-000001446</t>
+  </si>
+  <si>
+    <t>Documentos/1724313935001 GONZALEZ VARGAS JOSE MANUE/FC/001-002-000001445</t>
+  </si>
+  <si>
+    <t>001-002-000001445</t>
+  </si>
+  <si>
+    <t>Documentos/1722366216001 PAUCAR ABARCA MARCO VINICI/FC/001-100-000000068</t>
+  </si>
+  <si>
+    <t>001-100-000000068</t>
+  </si>
+  <si>
+    <t>Documentos/1722366216001 PAUCAR ABARCA MARCO VINICI/FC/001-100-000000057</t>
+  </si>
+  <si>
+    <t>001-100-000000057</t>
+  </si>
+  <si>
+    <t>Documentos/1719768333001 CHRISTIAN RENAN VASQUEZ FA/FC/001-003-000000020</t>
+  </si>
+  <si>
+    <t>001-003-000000020</t>
+  </si>
+  <si>
+    <t>Documentos/1717939720001 TOAQUIZA TIPANTUNA VICTOR/FC/001-002-000003200</t>
+  </si>
+  <si>
+    <t>001-002-000003200</t>
+  </si>
+  <si>
+    <t>Documentos/1717794919001 ARZA YAGUANA JUAN JOSE/FC/002-002-000000085</t>
+  </si>
+  <si>
+    <t>002-002-000000085</t>
+  </si>
+  <si>
+    <t>Documentos/1716598360001 JESSICA VILLACIS GALLARDO/FC/001-002-000003442</t>
+  </si>
+  <si>
+    <t>001-002-000003442</t>
+  </si>
+  <si>
+    <t>Documentos/1713639209001 MARIA GABRIELA CADENA LOZA/FC/002-001-000055326</t>
+  </si>
+  <si>
+    <t>002-001-000055326</t>
+  </si>
+  <si>
+    <t>Documentos/1713639209001 MARIA GABRIELA CADENA LOZA/FC/002-001-000055303</t>
+  </si>
+  <si>
+    <t>002-001-000055303</t>
+  </si>
+  <si>
+    <t>Documentos/1713639209001 MARIA GABRIELA CADENA LOZA/FC/002-001-000055297</t>
+  </si>
+  <si>
+    <t>002-001-000055297</t>
+  </si>
+  <si>
+    <t>Documentos/1713639209001 MARIA GABRIELA CADENA LOZA/FC/002-001-000055153</t>
+  </si>
+  <si>
+    <t>002-001-000055153</t>
+  </si>
+  <si>
+    <t>Documentos/1713639209001 MARIA GABRIELA CADENA LOZA/FC/002-001-000055138</t>
+  </si>
+  <si>
+    <t>002-001-000055138</t>
+  </si>
+  <si>
+    <t>Documentos/1713639209001 MARIA GABRIELA CADENA LOZA/FC/002-001-000055137</t>
+  </si>
+  <si>
+    <t>002-001-000055137</t>
+  </si>
+  <si>
+    <t>Documentos/1713639209001 MARIA GABRIELA CADENA LOZA/FC/002-001-000055136</t>
+  </si>
+  <si>
+    <t>002-001-000055136</t>
+  </si>
+  <si>
+    <t>Documentos/1713639209001 MARIA GABRIELA CADENA LOZA/FC/002-001-000055135</t>
+  </si>
+  <si>
+    <t>002-001-000055135</t>
+  </si>
+  <si>
+    <t>Documentos/1713639209001 MARIA GABRIELA CADENA LOZA/FC/002-001-000055134</t>
+  </si>
+  <si>
+    <t>002-001-000055134</t>
+  </si>
+  <si>
+    <t>Documentos/1713639209001 MARIA GABRIELA CADENA LOZA/FC/002-001-000055133</t>
+  </si>
+  <si>
+    <t>002-001-000055133</t>
+  </si>
+  <si>
+    <t>Documentos/1713639209001 MARIA GABRIELA CADENA LOZA/FC/002-001-000055132</t>
+  </si>
+  <si>
+    <t>002-001-000055132</t>
+  </si>
+  <si>
+    <t>Documentos/1713639209001 MARIA GABRIELA CADENA LOZA/FC/002-001-000055131</t>
+  </si>
+  <si>
+    <t>002-001-000055131</t>
+  </si>
+  <si>
+    <t>Documentos/1713639209001 MARIA GABRIELA CADENA LOZA/FC/002-001-000055130</t>
+  </si>
+  <si>
+    <t>002-001-000055130</t>
+  </si>
+  <si>
+    <t>Documentos/1713639209001 MARIA GABRIELA CADENA LOZA/FC/002-001-000055126</t>
+  </si>
+  <si>
+    <t>002-001-000055126</t>
+  </si>
+  <si>
+    <t>Documentos/1710118876001 Salazar Yanez Hector Ferna/FC/001-002-000000290</t>
+  </si>
+  <si>
+    <t>001-002-000000290</t>
+  </si>
+  <si>
+    <t>Documentos/1710036284001 BENITEZ TAPIA MONICA PATRI/FC/002-002-000008245</t>
+  </si>
+  <si>
+    <t>002-002-000008245</t>
+  </si>
+  <si>
+    <t>Documentos/1708520166001 JEREZCONS/NC/004-099-010002906</t>
+  </si>
+  <si>
+    <t>004-099-010002906</t>
+  </si>
+  <si>
+    <t>Documentos/1708520166001 JEREZ ROMERO MARCO VINICIO/FC/004-099-000052921</t>
+  </si>
+  <si>
+    <t>004-099-000052921</t>
+  </si>
+  <si>
+    <t>Documentos/1708520166001 JEREZ ROMERO MARCO VINICIO/FC/004-099-000052919</t>
+  </si>
+  <si>
+    <t>004-099-000052919</t>
+  </si>
+  <si>
+    <t>Documentos/1707153308001 NOVOA NOVOA OSCAR LEONIDAS/FC/002-001-000028071</t>
+  </si>
+  <si>
+    <t>002-001-000028071</t>
+  </si>
+  <si>
+    <t>Documentos/1707153308001 NOVOA NOVOA OSCAR LEONIDAS/FC/002-001-000028059</t>
+  </si>
+  <si>
+    <t>002-001-000028059</t>
+  </si>
+  <si>
+    <t>Documentos/1707153308001 NOVOA NOVOA OSCAR LEONIDAS/FC/002-001-000028058</t>
+  </si>
+  <si>
+    <t>002-001-000028058</t>
+  </si>
+  <si>
+    <t>Documentos/1707153308001 NOVOA NOVOA OSCAR LEONIDAS/FC/002-001-000028053</t>
+  </si>
+  <si>
+    <t>002-001-000028053</t>
+  </si>
+  <si>
+    <t>Documentos/1707153308001 NOVOA NOVOA OSCAR LEONIDAS/FC/002-001-000028052</t>
+  </si>
+  <si>
+    <t>002-001-000028052</t>
+  </si>
+  <si>
+    <t>Documentos/1091744631001 CONSTRUCCIONES CRANBEGAL C/FC/001-020-000212820</t>
+  </si>
+  <si>
+    <t>001-020-000212820</t>
+  </si>
+  <si>
+    <t>Documentos/1091721747001 MAXSERCON MAXIMO SERVICIO/FC/001-001-000000174</t>
+  </si>
+  <si>
+    <t>001-001-000000174</t>
+  </si>
+  <si>
+    <t>Documentos/1091721747001 MAXSERCON MAXIMO SERVICIO/FC/001-001-000000173</t>
+  </si>
+  <si>
+    <t>001-001-000000173</t>
+  </si>
+  <si>
+    <t>Documentos/1091721747001 MAXSERCON MAXIMO SERVICIO/FC/001-001-000000171</t>
+  </si>
+  <si>
+    <t>001-001-000000171</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000003</t>
+  </si>
+  <si>
+    <t>001-034-000000003</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000002</t>
+  </si>
+  <si>
+    <t>001-034-000000002</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000001</t>
+  </si>
+  <si>
+    <t>001-034-000000001</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-033-000000047</t>
+  </si>
+  <si>
+    <t>001-033-000000047</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-033-000000046</t>
+  </si>
+  <si>
+    <t>001-033-000000046</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-030-000000094</t>
+  </si>
+  <si>
+    <t>001-030-000000094</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-026-000000053</t>
+  </si>
+  <si>
+    <t>001-026-000000053</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-024-000000050</t>
+  </si>
+  <si>
+    <t>001-024-000000050</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-023-000000055</t>
+  </si>
+  <si>
+    <t>001-023-000000055</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-023-000000054</t>
+  </si>
+  <si>
+    <t>001-023-000000054</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-022-000000049</t>
+  </si>
+  <si>
+    <t>001-022-000000049</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-022-000000048</t>
+  </si>
+  <si>
+    <t>001-022-000000048</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-021-000000056</t>
+  </si>
+  <si>
+    <t>001-021-000000056</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-021-000000055</t>
+  </si>
+  <si>
+    <t>001-021-000000055</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000070</t>
+  </si>
+  <si>
+    <t>001-020-000000070</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000068</t>
+  </si>
+  <si>
+    <t>001-020-000000068</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-019-000000050</t>
+  </si>
+  <si>
+    <t>001-019-000000050</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-019-000000049</t>
+  </si>
+  <si>
+    <t>001-019-000000049</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-018-000000072</t>
+  </si>
+  <si>
+    <t>001-018-000000072</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-018-000000071</t>
+  </si>
+  <si>
+    <t>001-018-000000071</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-018-000000070</t>
+  </si>
+  <si>
+    <t>001-018-000000070</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-018-000000069</t>
+  </si>
+  <si>
+    <t>001-018-000000069</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-017-000000097</t>
+  </si>
+  <si>
+    <t>001-017-000000097</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-017-000000096</t>
+  </si>
+  <si>
+    <t>001-017-000000096</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-017-000000095</t>
+  </si>
+  <si>
+    <t>001-017-000000095</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-015-000000049</t>
+  </si>
+  <si>
+    <t>001-015-000000049</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-015-000000048</t>
+  </si>
+  <si>
+    <t>001-015-000000048</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-014-000000107</t>
+  </si>
+  <si>
+    <t>001-014-000000107</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-014-000000106</t>
+  </si>
+  <si>
+    <t>001-014-000000106</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-014-000000105</t>
+  </si>
+  <si>
+    <t>001-014-000000105</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-013-000000054</t>
+  </si>
+  <si>
+    <t>001-013-000000054</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-013-000000053</t>
+  </si>
+  <si>
+    <t>001-013-000000053</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-012-000000062</t>
+  </si>
+  <si>
+    <t>001-012-000000062</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-011-000000167</t>
+  </si>
+  <si>
+    <t>001-011-000000167</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-011-000000166</t>
+  </si>
+  <si>
+    <t>001-011-000000166</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-011-000000165</t>
+  </si>
+  <si>
+    <t>001-011-000000165</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-011-000000164</t>
+  </si>
+  <si>
+    <t>001-011-000000164</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-011-000000163</t>
+  </si>
+  <si>
+    <t>001-011-000000163</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-010-000000058</t>
+  </si>
+  <si>
+    <t>001-010-000000058</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-010-000000056</t>
+  </si>
+  <si>
+    <t>001-010-000000056</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-009-000000058</t>
+  </si>
+  <si>
+    <t>001-009-000000058</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-009-000000057</t>
+  </si>
+  <si>
+    <t>001-009-000000057</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-002-000000442</t>
+  </si>
+  <si>
+    <t>001-002-000000442</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-002-000000441</t>
+  </si>
+  <si>
+    <t>001-002-000000441</t>
+  </si>
+  <si>
+    <t>Documentos/1091717308001 COMPANIA DE TRANSPORTE PES/FC/001-002-000000440</t>
+  </si>
+  <si>
+    <t>001-002-000000440</t>
+  </si>
+  <si>
+    <t>Documentos/1090084247001 COMERCIAL HIDROBO S.A. COM/FC/004-008-000000565</t>
+  </si>
+  <si>
+    <t>004-008-000000565</t>
+  </si>
+  <si>
+    <t>Documentos/1004085666001 COSTALES LEON RICARDO BOLI/FC/001-001-000000143</t>
+  </si>
+  <si>
+    <t>001-001-000000143</t>
+  </si>
+  <si>
+    <t>Documentos/1002945762001 GUEVARA GUEVARA EDWIN HERN/FC/001-001-000000067</t>
+  </si>
+  <si>
+    <t>001-001-000000067</t>
+  </si>
+  <si>
+    <t>Documentos/1002945762001 GUEVARA GUEVARA EDWIN HERN/FC/001-001-000000066</t>
+  </si>
+  <si>
+    <t>001-001-000000066</t>
+  </si>
+  <si>
+    <t>Documentos/1002765038001 ENRIQUEZ VILLACORTE EDWIN/FC/001-001-000000077</t>
+  </si>
+  <si>
+    <t>001-001-000000077</t>
+  </si>
+  <si>
+    <t>Documentos/1002702155001 HARO YEPEZ HECTOR RAUL/FC/003-100-000000287</t>
+  </si>
+  <si>
+    <t>003-100-000000287</t>
+  </si>
+  <si>
+    <t>Documentos/1002702155001 HARO YEPEZ HECTOR RAUL/FC/003-100-000000286</t>
+  </si>
+  <si>
+    <t>003-100-000000286</t>
+  </si>
+  <si>
+    <t>Documentos/1002702155001 HARO YEPEZ HECTOR RAUL/FC/003-100-000000285</t>
+  </si>
+  <si>
+    <t>003-100-000000285</t>
+  </si>
+  <si>
+    <t>Documentos/1002702155001 HARO YEPEZ HECTOR RAUL/FC/003-100-000000284</t>
+  </si>
+  <si>
+    <t>003-100-000000284</t>
+  </si>
+  <si>
+    <t>Documentos/1002702155001 HARO YEPEZ HECTOR RAUL/FC/003-100-000000283</t>
+  </si>
+  <si>
+    <t>003-100-000000283</t>
+  </si>
+  <si>
+    <t>Documentos/1002702155001 HARO YEPEZ HECTOR RAUL/FC/003-100-000000282</t>
+  </si>
+  <si>
+    <t>003-100-000000282</t>
+  </si>
+  <si>
+    <t>Documentos/1002702155001 HARO YEPEZ HECTOR RAUL/FC/003-100-000000281</t>
+  </si>
+  <si>
+    <t>003-100-000000281</t>
+  </si>
+  <si>
+    <t>Documentos/1002702155001 HARO YEPEZ HECTOR RAUL/FC/003-100-000000280</t>
+  </si>
+  <si>
+    <t>003-100-000000280</t>
+  </si>
+  <si>
+    <t>Documentos/1002702155001 HARO YEPEZ HECTOR RAUL/FC/003-100-000000279</t>
+  </si>
+  <si>
+    <t>003-100-000000279</t>
+  </si>
+  <si>
+    <t>Documentos/1002702155001 HARO YEPEZ HECTOR RAUL/FC/003-100-000000278</t>
+  </si>
+  <si>
+    <t>003-100-000000278</t>
+  </si>
+  <si>
+    <t>Documentos/1002702155001 HARO YEPEZ HECTOR RAUL/FC/002-100-000000004</t>
+  </si>
+  <si>
+    <t>002-100-000000004</t>
+  </si>
+  <si>
+    <t>Documentos/1002416764001 TITUANA MINDA EDWIN RODRIG/FC/001-002-000000216</t>
+  </si>
+  <si>
+    <t>001-002-000000216</t>
+  </si>
+  <si>
+    <t>Documentos/1002416764001 TITUANA MINDA EDWIN RODRIG/FC/001-002-000000215</t>
+  </si>
+  <si>
+    <t>001-002-000000215</t>
+  </si>
+  <si>
+    <t>Documentos/1002416764001 TITUANA MINDA EDWIN RODRIG/FC/001-002-000000213</t>
+  </si>
+  <si>
+    <t>001-002-000000213</t>
+  </si>
+  <si>
+    <t>Documentos/1002416764001 TITUANA MINDA EDWIN RODRIG/FC/001-002-000000212</t>
+  </si>
+  <si>
+    <t>001-002-000000212</t>
+  </si>
+  <si>
+    <t>Documentos/1002416764001 TITUANA MINDA EDWIN RODRIG/FC/001-002-000000211</t>
+  </si>
+  <si>
+    <t>001-002-000000211</t>
+  </si>
+  <si>
+    <t>Documentos/1002416764001 TITUANA MINDA EDWIN RODRIG/FC/001-002-000000210</t>
+  </si>
+  <si>
+    <t>001-002-000000210</t>
+  </si>
+  <si>
+    <t>Documentos/1001930278001 MONTALVO ERAZO JHADIRA MAR/FC/001-010-000077755</t>
+  </si>
+  <si>
+    <t>001-010-000077755</t>
+  </si>
+  <si>
+    <t>Documentos/1001930278001 MONTALVO ERAZO JHADIRA MAR/FC/001-010-000077726</t>
+  </si>
+  <si>
+    <t>001-010-000077726</t>
+  </si>
+  <si>
+    <t>Documentos/1001807088001 VILLARRUEL ARELLANO JORGE/FC/001-100-000000090</t>
+  </si>
+  <si>
+    <t>001-100-000000090</t>
+  </si>
+  <si>
+    <t>Documentos/1001807088001 VILLARRUEL ARELLANO JORGE/FC/001-100-000000089</t>
+  </si>
+  <si>
+    <t>001-100-000000089</t>
+  </si>
+  <si>
+    <t>Documentos/1001807088001 VILLARRUEL ARELLANO JORGE/FC/001-100-000000088</t>
+  </si>
+  <si>
+    <t>001-100-000000088</t>
+  </si>
+  <si>
+    <t>Documentos/1001807088001 VILLARRUEL ARELLANO JORGE/FC/001-100-000000087</t>
+  </si>
+  <si>
+    <t>001-100-000000087</t>
+  </si>
+  <si>
+    <t>Documentos/1001807088001 VILLARRUEL ARELLANO JORGE/FC/001-100-000000086</t>
+  </si>
+  <si>
+    <t>001-100-000000086</t>
+  </si>
+  <si>
+    <t>Documentos/1001807088001 VILLARRUEL ARELLANO JORGE/FC/001-100-000000085</t>
+  </si>
+  <si>
+    <t>001-100-000000085</t>
+  </si>
+  <si>
+    <t>Documentos/1001746450001 MORENO CARRILLO JOSE ELIAS/FC/001-001-000000099</t>
+  </si>
+  <si>
+    <t>001-001-000000099</t>
+  </si>
+  <si>
+    <t>Documentos/1001577798001 MAFLA MONTALVO HECTOR OCTA/FC/001-002-000000053</t>
+  </si>
+  <si>
+    <t>001-002-000000053</t>
+  </si>
+  <si>
+    <t>Documentos/1001189479001 CUESTAS TRUJILLO MANUEL ME/FC/003-002-000000402</t>
+  </si>
+  <si>
+    <t>003-002-000000402</t>
+  </si>
+  <si>
+    <t>Documentos/1001189479001 CUESTAS TRUJILLO MANUEL ME/FC/003-002-000000401</t>
+  </si>
+  <si>
+    <t>003-002-000000401</t>
+  </si>
+  <si>
+    <t>Documentos/1001189479001 CUESTAS TRUJILLO MANUEL ME/FC/003-002-000000400</t>
+  </si>
+  <si>
+    <t>003-002-000000400</t>
+  </si>
+  <si>
+    <t>Documentos/1001189479001 CUESTAS TRUJILLO MANUEL ME/FC/003-002-000000399</t>
+  </si>
+  <si>
+    <t>003-002-000000399</t>
+  </si>
+  <si>
+    <t>Documentos/0993265799001 CENTRO DE EXCELENCIA EN NE/FC/001-001-000001455</t>
+  </si>
+  <si>
+    <t>001-001-000001455</t>
+  </si>
+  <si>
+    <t>Documentos/0993191698001 CONSULTORA BESTTALENTS BTC/FC/001-001-000000082</t>
+  </si>
+  <si>
+    <t>001-001-000000082</t>
+  </si>
+  <si>
+    <t>Documentos/0992798238001 LAYHEREC S.A./FC/001-002-000005823</t>
+  </si>
+  <si>
+    <t>001-002-000005823</t>
+  </si>
+  <si>
+    <t>Documentos/0992798238001 LAYHEREC S.A./FC/001-002-000005816</t>
+  </si>
+  <si>
+    <t>001-002-000005816</t>
+  </si>
+  <si>
+    <t>Documentos/0992706031001 TALENTOPSA S.A/FC/001-002-000046932</t>
+  </si>
+  <si>
+    <t>001-002-000046932</t>
+  </si>
+  <si>
+    <t>Documentos/0992376538001 IMPORTADORA Y DISTRIBUIDOR/FC/006-002-000001623</t>
+  </si>
+  <si>
+    <t>006-002-000001623</t>
+  </si>
+  <si>
+    <t>Documentos/0992358173001 RESNORTE/FC/002-001-000254299</t>
+  </si>
+  <si>
+    <t>002-001-000254299</t>
+  </si>
+  <si>
+    <t>Documentos/0992251069001 VISE-ECUADOR CIALTDA/FC/001-010-000005791</t>
+  </si>
+  <si>
+    <t>001-010-000005791</t>
+  </si>
+  <si>
+    <t>Documentos/0992251069001 VISE-ECUADOR CIALTDA/FC/001-010-000005790</t>
+  </si>
+  <si>
+    <t>001-010-000005790</t>
+  </si>
+  <si>
+    <t>Documentos/0992106891001 DULCAFE S A/FC/098-052-000186583</t>
+  </si>
+  <si>
+    <t>098-052-000186583</t>
+  </si>
+  <si>
+    <t>Documentos/0992106891001 DULCAFE S A/FC/098-052-000186579</t>
+  </si>
+  <si>
+    <t>098-052-000186579</t>
+  </si>
+  <si>
+    <t>Documentos/0991326626001 SERIPACAR SA/FC/002-001-000003036</t>
+  </si>
+  <si>
+    <t>002-001-000003036</t>
+  </si>
+  <si>
+    <t>Documentos/0991319352001 LLAVENMANO LLAVENMAG S.A./FC/001-002-000002659</t>
+  </si>
+  <si>
+    <t>001-002-000002659</t>
+  </si>
+  <si>
+    <t>Documentos/0991319352001 LLAVENMANO LLAVENMAG S.A./FC/001-002-000002658</t>
+  </si>
+  <si>
+    <t>001-002-000002658</t>
+  </si>
+  <si>
+    <t>Documentos/0991319352001 LLAVENMANO LLAVENMAG S.A./FC/001-002-000002657</t>
+  </si>
+  <si>
+    <t>001-002-000002657</t>
+  </si>
+  <si>
+    <t>Documentos/0991319352001 LLAVENMANO LLAVENMAG S.A./FC/001-002-000002656</t>
+  </si>
+  <si>
+    <t>001-002-000002656</t>
+  </si>
+  <si>
+    <t>Documentos/0991159509001 ELECTROLEG SA/FC/002-003-000070417</t>
+  </si>
+  <si>
+    <t>002-003-000070417</t>
+  </si>
+  <si>
+    <t>Documentos/0991159509001 ELECTROLEG SA/FC/002-003-000070328</t>
+  </si>
+  <si>
+    <t>002-003-000070328</t>
+  </si>
+  <si>
+    <t>Documentos/0991159509001 ELECTROLEG SA/FC/002-003-000070326</t>
+  </si>
+  <si>
+    <t>002-003-000070326</t>
+  </si>
+  <si>
+    <t>Documentos/0991159509001 ELECTROLEG SA/FC/002-003-000070325</t>
+  </si>
+  <si>
+    <t>002-003-000070325</t>
+  </si>
+  <si>
+    <t>Documentos/0990681708001 INDUSUR INDUSTRIAL DEL SUR/FC/037-101-000006022</t>
+  </si>
+  <si>
+    <t>037-101-000006022</t>
+  </si>
+  <si>
+    <t>Documentos/0990681708001 INDUSUR INDUSTRIAL DEL SUR/FC/037-101-000006021</t>
+  </si>
+  <si>
+    <t>037-101-000006021</t>
+  </si>
+  <si>
+    <t>Documentos/0990681708001 INDUSUR INDUSTRIAL DEL SUR/FC/037-101-000006020</t>
+  </si>
+  <si>
+    <t>037-101-000006020</t>
+  </si>
+  <si>
+    <t>Documentos/0990646546001 CASA DEL RULIMAN DEL ECUAD/NC/001-005-000016008</t>
+  </si>
+  <si>
+    <t>001-005-000016008</t>
+  </si>
+  <si>
+    <t>Documentos/0990646546001 CASA DEL RULIMAN DEL ECUAD/FC/001-004-000248609</t>
+  </si>
+  <si>
+    <t>001-004-000248609</t>
+  </si>
+  <si>
+    <t>Documentos/0990340900001 Indura Ecuador S.A./FC/012-010-000031362</t>
+  </si>
+  <si>
+    <t>012-010-000031362</t>
+  </si>
+  <si>
+    <t>Documentos/0990331928001 L.HENRIQUES &amp; CIA S.A./FC/002-018-000107042</t>
+  </si>
+  <si>
+    <t>002-018-000107042</t>
+  </si>
+  <si>
+    <t>Documentos/0990331928001 L.HENRIQUES &amp; CIA S.A./FC/002-018-000107034</t>
+  </si>
+  <si>
+    <t>002-018-000107034</t>
+  </si>
+  <si>
+    <t>Documentos/0990331928001 L.HENRIQUES &amp; CIA S.A./FC/002-018-000106917</t>
+  </si>
+  <si>
+    <t>002-018-000106917</t>
+  </si>
+  <si>
+    <t>Documentos/0990331928001 L.HENRIQUES &amp; CIA S.A./FC/002-018-000106701</t>
+  </si>
+  <si>
+    <t>002-018-000106701</t>
+  </si>
+  <si>
+    <t>Documentos/0990281866001 TUVAL S.A./NC/013-001-000001061</t>
+  </si>
+  <si>
+    <t>013-001-000001061</t>
+  </si>
+  <si>
+    <t>Documentos/0990281866001 TUVAL S.A./NC/013-001-000001045</t>
+  </si>
+  <si>
+    <t>013-001-000001045</t>
+  </si>
+  <si>
+    <t>Documentos/0990281866001 TUVAL S.A./FC/013-001-000012812</t>
+  </si>
+  <si>
+    <t>013-001-000012812</t>
+  </si>
+  <si>
+    <t>Documentos/0990177805001 QUIMICAMP DEL ECUADOR SA/FC/005-002-000002727</t>
+  </si>
+  <si>
+    <t>005-002-000002727</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/009-203-000012809</t>
+  </si>
+  <si>
+    <t>009-203-000012809</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/009-203-000012808</t>
+  </si>
+  <si>
+    <t>009-203-000012808</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/009-203-000012807</t>
+  </si>
+  <si>
+    <t>009-203-000012807</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/008-201-000032659</t>
+  </si>
+  <si>
+    <t>008-201-000032659</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/002-204-000000955</t>
+  </si>
+  <si>
+    <t>002-204-000000955</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/002-204-000000954</t>
+  </si>
+  <si>
+    <t>002-204-000000954</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/002-204-000000948</t>
+  </si>
+  <si>
+    <t>002-204-000000948</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/002-204-000000941</t>
+  </si>
+  <si>
+    <t>002-204-000000941</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/001-209-000097289</t>
+  </si>
+  <si>
+    <t>001-209-000097289</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/001-209-000097288</t>
+  </si>
+  <si>
+    <t>001-209-000097288</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/001-209-000097287</t>
+  </si>
+  <si>
+    <t>001-209-000097287</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/001-209-000097264</t>
+  </si>
+  <si>
+    <t>001-209-000097264</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/001-209-000097263</t>
+  </si>
+  <si>
+    <t>001-209-000097263</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/001-209-000097262</t>
+  </si>
+  <si>
+    <t>001-209-000097262</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/001-209-000097202</t>
+  </si>
+  <si>
+    <t>001-209-000097202</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/001-209-000097201</t>
+  </si>
+  <si>
+    <t>001-209-000097201</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/001-209-000096447</t>
+  </si>
+  <si>
+    <t>001-209-000096447</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/001-209-000096445</t>
+  </si>
+  <si>
+    <t>001-209-000096445</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/001-209-000096444</t>
+  </si>
+  <si>
+    <t>001-209-000096444</t>
+  </si>
+  <si>
+    <t>Documentos/0990129185001 Hivimar S. A./FC/001-209-000096402</t>
+  </si>
+  <si>
+    <t>001-209-000096402</t>
+  </si>
+  <si>
+    <t>Documentos/0990022011001 Maquinarias y Vehiculos S./FC/039-001-000017070</t>
+  </si>
+  <si>
+    <t>039-001-000017070</t>
+  </si>
+  <si>
+    <t>Documentos/0990021007001 LINDE ECUADOR S.A./FC/023-016-000085018</t>
+  </si>
+  <si>
+    <t>023-016-000085018</t>
+  </si>
+  <si>
+    <t>Documentos/0990021007001 LINDE ECUADOR S.A./FC/023-016-000084851</t>
+  </si>
+  <si>
+    <t>023-016-000084851</t>
+  </si>
+  <si>
+    <t>Documentos/0990021007001 LINDE ECUADOR S.A./FC/023-016-000084746</t>
+  </si>
+  <si>
+    <t>023-016-000084746</t>
+  </si>
+  <si>
+    <t>Documentos/0990021007001 LINDE ECUADOR S.A./FC/023-016-000084744</t>
+  </si>
+  <si>
+    <t>023-016-000084744</t>
+  </si>
+  <si>
+    <t>Documentos/0990021007001 LINDE ECUADOR S.A./FC/023-016-000084637</t>
+  </si>
+  <si>
+    <t>023-016-000084637</t>
+  </si>
+  <si>
+    <t>Documentos/0990018685001 CONAUTO C.A./FC/008-905-000060618</t>
+  </si>
+  <si>
+    <t>008-905-000060618</t>
+  </si>
+  <si>
+    <t>Documentos/0990018685001 CONAUTO C.A./FC/008-905-000060614</t>
+  </si>
+  <si>
+    <t>008-905-000060614</t>
+  </si>
+  <si>
+    <t>Documentos/0990018685001 CONAUTO C.A./FC/008-905-000060609</t>
+  </si>
+  <si>
+    <t>008-905-000060609</t>
+  </si>
+  <si>
+    <t>Documentos/0990018685001 CONAUTO C.A./FC/008-905-000060608</t>
+  </si>
+  <si>
+    <t>008-905-000060608</t>
+  </si>
+  <si>
+    <t>Documentos/0990011117001 IASA-SERVICIO S.A./FC/002-012-000027119</t>
+  </si>
+  <si>
+    <t>002-012-000027119</t>
+  </si>
+  <si>
+    <t>Documentos/0990011117001 IASA-SERVICIO S.A./FC/002-012-000027088</t>
+  </si>
+  <si>
+    <t>002-012-000027088</t>
+  </si>
+  <si>
+    <t>Documentos/0990011117001 IASA-SERVICIO S.A./FC/001-012-000089139</t>
+  </si>
+  <si>
+    <t>001-012-000089139</t>
+  </si>
+  <si>
+    <t>Documentos/0990011109001 IASA S.A./FC/002-013-000075613</t>
+  </si>
+  <si>
+    <t>002-013-000075613</t>
+  </si>
+  <si>
+    <t>Documentos/0990011109001 IASA S.A./FC/002-013-000075608</t>
+  </si>
+  <si>
+    <t>002-013-000075608</t>
+  </si>
+  <si>
+    <t>Documentos/0990011109001 IASA S.A./FC/002-013-000075607</t>
+  </si>
+  <si>
+    <t>002-013-000075607</t>
+  </si>
+  <si>
+    <t>Documentos/0990011109001 IASA S.A./FC/002-013-000075606</t>
+  </si>
+  <si>
+    <t>002-013-000075606</t>
+  </si>
+  <si>
+    <t>Documentos/0990011109001 IASA S.A./FC/002-013-000075605</t>
+  </si>
+  <si>
+    <t>002-013-000075605</t>
+  </si>
+  <si>
+    <t>Documentos/0990011109001 IASA S.A./FC/002-013-000075438</t>
+  </si>
+  <si>
+    <t>002-013-000075438</t>
+  </si>
+  <si>
+    <t>Documentos/0912775525001 VARELA RIVAS PEDRO WILSON/FC/001-001-000000079</t>
+  </si>
+  <si>
+    <t>001-001-000000079</t>
+  </si>
+  <si>
+    <t>Documentos/0912775525001 VARELA RIVAS PEDRO WILSON/FC/001-001-000000078</t>
+  </si>
+  <si>
+    <t>001-001-000000078</t>
+  </si>
+  <si>
+    <t>Documentos/0912775525001 VARELA RIVAS PEDRO WILSON/FC/001-001-000000077</t>
+  </si>
+  <si>
+    <t>Documentos/0912775525001 VARELA RIVAS PEDRO WILSON/FC/001-001-000000076</t>
+  </si>
+  <si>
+    <t>001-001-000000076</t>
+  </si>
+  <si>
+    <t>Documentos/0501098750001 CALDERON FREIRE ANGEL ESTU/FC/001-001-000000356</t>
+  </si>
+  <si>
+    <t>001-001-000000356</t>
+  </si>
+  <si>
+    <t>Documentos/0501098750001 CALDERON FREIRE ANGEL ESTU/FC/001-001-000000355</t>
+  </si>
+  <si>
+    <t>001-001-000000355</t>
+  </si>
+  <si>
+    <t>Documentos/0490041028001 REPRINTER REPRESENTACIONES/FC/001-002-000013443</t>
+  </si>
+  <si>
+    <t>001-002-000013443</t>
+  </si>
+  <si>
+    <t>Documentos/0400813192001 ANDRADE MENA GABRIELA/FC/002-002-000000021</t>
+  </si>
+  <si>
+    <t>002-002-000000021</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
     <t>Documento</t>
   </si>
   <si>
+    <t>Cruce Proveedores</t>
+  </si>
+  <si>
+    <t>Proveedor no válido</t>
+  </si>
+  <si>
     <t>Rimpe</t>
   </si>
   <si>
     <t>Contribuyente Especial: 01124</t>
+  </si>
+  <si>
+    <t>Contribuyente Especial: 00214</t>
+  </si>
+  <si>
+    <t>Contribuyente Especial: 00622</t>
+  </si>
+  <si>
+    <t>Contribuyente Especial: 00143</t>
+  </si>
+  <si>
+    <t>Contribuyente Especial: 00639</t>
+  </si>
+  <si>
+    <t>Contribuyente Especial: 02239</t>
+  </si>
+  <si>
+    <t>Contribuyente Especial: 00636</t>
   </si>
 </sst>
 </file>
@@ -595,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,10 +2153,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>583</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>584</v>
+      </c>
+      <c r="C1" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,6 +2169,9 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -640,6 +2191,9 @@
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D4">
+        <v>4400158572</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -649,7 +2203,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>4400158572</v>
+        <v>4400159354</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -694,6 +2248,9 @@
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C10" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -702,6 +2259,9 @@
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C11" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -710,6 +2270,9 @@
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C12" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -737,6 +2300,9 @@
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C15" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -772,6 +2338,9 @@
       <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C19" t="s">
+        <v>586</v>
+      </c>
       <c r="D19">
         <v>4700005959</v>
       </c>
@@ -783,6 +2352,9 @@
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C20" t="s">
+        <v>586</v>
+      </c>
       <c r="D20">
         <v>4700005959</v>
       </c>
@@ -798,7 +2370,7 @@
         <v>4400161850</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -850,7 +2422,7 @@
         <v>1231538908</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -864,7 +2436,7 @@
         <v>1231538908</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>588</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -878,7 +2450,7 @@
         <v>4400103091</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,7 +2464,7 @@
         <v>4700005309</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,7 +2533,7 @@
         <v>4400104690</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>587</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -979,6 +2551,9 @@
       <c r="B37" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="C37" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -987,6 +2562,9 @@
       <c r="B38" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="C38" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -995,8 +2573,2392 @@
       <c r="B39" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="C39" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40">
+        <v>4400163964</v>
+      </c>
+      <c r="E40" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41">
+        <v>4400164359</v>
+      </c>
+      <c r="E41" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42">
+        <v>4700005639</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43">
+        <v>4700005639</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44">
+        <v>4700005639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>586</v>
+      </c>
+      <c r="D45">
+        <v>4400154969</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>586</v>
+      </c>
+      <c r="D46">
+        <v>4400154969</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>586</v>
+      </c>
+      <c r="D47">
+        <v>4400154969</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>586</v>
+      </c>
+      <c r="D48">
+        <v>4400154969</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>586</v>
+      </c>
+      <c r="D49">
+        <v>4400154969</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>586</v>
+      </c>
+      <c r="D50">
+        <v>4400154969</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>586</v>
+      </c>
+      <c r="D51">
+        <v>4400154969</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>586</v>
+      </c>
+      <c r="D52">
+        <v>4400154969</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>586</v>
+      </c>
+      <c r="D53">
+        <v>4400154969</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>586</v>
+      </c>
+      <c r="D54">
+        <v>4400154969</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>586</v>
+      </c>
+      <c r="D55">
+        <v>4400154969</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59">
+        <v>4400123007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63">
+        <v>4400164852</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64">
+        <v>4400163943</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65">
+        <v>4400160182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>586</v>
+      </c>
+      <c r="D66">
+        <v>4700005440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67">
+        <v>4400164939</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68">
+        <v>4400165414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69">
+        <v>4400164939</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70">
+        <v>4400164090</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78">
+        <v>4400167059</v>
+      </c>
+      <c r="E78" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79">
+        <v>4400166483</v>
+      </c>
+      <c r="E79" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" t="s">
+        <v>586</v>
+      </c>
+      <c r="D81">
+        <v>4400065628</v>
+      </c>
+      <c r="E81" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" t="s">
+        <v>586</v>
+      </c>
+      <c r="D82">
+        <v>4400080132</v>
+      </c>
+      <c r="E82" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83">
+        <v>4400150854</v>
+      </c>
+      <c r="E83" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86">
+        <v>4400101871</v>
+      </c>
+      <c r="E86" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D87">
+        <v>4400127185</v>
+      </c>
+      <c r="E87" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D88">
+        <v>4400164965</v>
+      </c>
+      <c r="E88" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89">
+        <v>4400149727</v>
+      </c>
+      <c r="E89" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D98">
+        <v>4400148067</v>
+      </c>
+      <c r="E98" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D99">
+        <v>4400148067</v>
+      </c>
+      <c r="E99" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D100">
+        <v>4400157727</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D101">
+        <v>4400163064</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D102">
+        <v>4400129465</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D103">
+        <v>4400164934</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C114" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D118">
+        <v>4400148777</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D119">
+        <v>4400163946</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C121" t="s">
+        <v>586</v>
+      </c>
+      <c r="D121">
+        <v>4400154871</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C122" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D123">
+        <v>4700005919</v>
+      </c>
+      <c r="E123" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124">
+        <v>4700005916</v>
+      </c>
+      <c r="E124" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D125">
+        <v>4700005916</v>
+      </c>
+      <c r="E125" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D126">
+        <v>4400125581</v>
+      </c>
+      <c r="E126" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D127">
+        <v>4400125581</v>
+      </c>
+      <c r="E127" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D129">
+        <v>4700005554</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D130">
+        <v>4700005554</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D131">
+        <v>4400134457</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C177" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C208" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C215" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C216" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C286" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C287" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C288" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C289" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>582</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C293"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
